--- a/doc/13_外部設計/02_外部設計_完了画面（グループ詳細）.xlsx
+++ b/doc/13_外部設計/02_外部設計_完了画面（グループ詳細）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B7D35-96A0-4F36-A1B0-09F6BC71CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097582D1-B6B2-41BA-86DE-A0DE62404177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -529,6 +529,38 @@
   </si>
   <si>
     <t>Expel</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.アイコン設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループのアイコンを設定する。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像をアップロードすることでアイコンに設定される。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アイコンボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -921,24 +953,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +991,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,14 +1003,21 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1294,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1304,200 +1336,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="35" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="20" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="19">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37">
         <v>45450</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="21" t="s">
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="24"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -3026,22 +3058,22 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -3060,7 +3092,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="8"/>
@@ -3070,22 +3102,22 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -3104,32 +3136,32 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
@@ -3147,7 +3179,7 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="AA46" s="40"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
@@ -3175,22 +3207,22 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
@@ -3218,22 +3250,22 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
@@ -3261,22 +3293,22 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
@@ -3304,22 +3336,22 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
@@ -3347,22 +3379,22 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -3390,22 +3422,22 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
@@ -3430,22 +3462,22 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
@@ -3473,22 +3505,22 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
@@ -3516,21 +3548,21 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
@@ -3927,6 +3959,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="C65" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -3967,6 +4002,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
+      <c r="D66" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -4007,6 +4045,9 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
+      <c r="D67" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5131,16 +5172,24 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13">
+        <v>6</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="14"/>
@@ -5151,7 +5200,9 @@
       <c r="T91" s="17"/>
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
+      <c r="W91" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="Z91" s="17"/>
@@ -5970,6 +6021,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -5985,8 +6038,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
